--- a/tmp_output/docked_raw/docked_raw_2022-03-19.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="257">
   <si>
     <t>員編</t>
   </si>
@@ -719,156 +719,9 @@
     <t>INTWK0002203140518</t>
   </si>
   <si>
-    <t>4710887946105</t>
-  </si>
-  <si>
-    <t>4710887942763</t>
-  </si>
-  <si>
-    <t>4710887942770</t>
-  </si>
-  <si>
-    <t>4710887943500</t>
-  </si>
-  <si>
-    <t>4710887944002</t>
-  </si>
-  <si>
-    <t>4710731070222</t>
-  </si>
-  <si>
-    <t>4710731047675</t>
-  </si>
-  <si>
-    <t>4710731021736</t>
-  </si>
-  <si>
-    <t>4710731148235</t>
-  </si>
-  <si>
-    <t>14710731160180</t>
-  </si>
-  <si>
-    <t>14710731021832</t>
-  </si>
-  <si>
-    <t>14710731030919</t>
-  </si>
-  <si>
-    <t>14710731030933</t>
-  </si>
-  <si>
-    <t>64710731010206</t>
-  </si>
-  <si>
-    <t>64710731010213</t>
-  </si>
-  <si>
-    <t>4710731052587</t>
-  </si>
-  <si>
-    <t>86923038051540</t>
-  </si>
-  <si>
-    <t>64710731010220</t>
-  </si>
-  <si>
-    <t>14710731021894</t>
-  </si>
-  <si>
-    <t>4710731071892</t>
-  </si>
-  <si>
-    <t>4710731070628</t>
-  </si>
-  <si>
-    <t>4710731000304</t>
-  </si>
-  <si>
-    <t>4710731049419</t>
-  </si>
-  <si>
-    <t>4710731049471</t>
-  </si>
-  <si>
-    <t>6941399058330</t>
-  </si>
-  <si>
-    <t>6941399014930</t>
-  </si>
-  <si>
-    <t>6941399046801</t>
-  </si>
-  <si>
-    <t>6941399057586</t>
-  </si>
-  <si>
-    <t>6941399062061</t>
-  </si>
-  <si>
-    <t>6944284677937</t>
-  </si>
-  <si>
-    <t>6944284695788</t>
-  </si>
-  <si>
-    <t>6944284695771</t>
-  </si>
-  <si>
-    <t>6941399014978</t>
-  </si>
-  <si>
-    <t>6941399040687</t>
-  </si>
-  <si>
-    <t>6944284697249</t>
-  </si>
-  <si>
-    <t>6941399062054</t>
-  </si>
-  <si>
-    <t>6941399057579</t>
-  </si>
-  <si>
-    <t>6941399058347</t>
-  </si>
-  <si>
     <t>R2350000003</t>
   </si>
   <si>
-    <t>6941399014954</t>
-  </si>
-  <si>
-    <t>8806403162817</t>
-  </si>
-  <si>
-    <t>8806403117534</t>
-  </si>
-  <si>
-    <t>8809612851862</t>
-  </si>
-  <si>
-    <t>8809707252321</t>
-  </si>
-  <si>
-    <t>8809707252710</t>
-  </si>
-  <si>
-    <t>8809612852586</t>
-  </si>
-  <si>
-    <t>8809612877879</t>
-  </si>
-  <si>
-    <t>8809612877909</t>
-  </si>
-  <si>
-    <t>8809612877862</t>
-  </si>
-  <si>
-    <t>8809576261202</t>
-  </si>
-  <si>
     <t>EH00197-2</t>
   </si>
   <si>
@@ -878,408 +731,42 @@
     <t>EH00197-5</t>
   </si>
   <si>
-    <t>8809668022490</t>
-  </si>
-  <si>
-    <t>8809668022469</t>
-  </si>
-  <si>
-    <t>8809668022506</t>
-  </si>
-  <si>
-    <t>8809652894799</t>
-  </si>
-  <si>
-    <t>6700001016</t>
-  </si>
-  <si>
-    <t>8809625244170</t>
-  </si>
-  <si>
-    <t>8809652896113</t>
-  </si>
-  <si>
-    <t>8809625244231</t>
-  </si>
-  <si>
-    <t>8809625244293</t>
-  </si>
-  <si>
-    <t>8809625244149</t>
-  </si>
-  <si>
-    <t>8809625244200</t>
-  </si>
-  <si>
-    <t>8809625244286</t>
-  </si>
-  <si>
-    <t>8809625244187</t>
-  </si>
-  <si>
-    <t>8809625244194</t>
-  </si>
-  <si>
-    <t>8809625244316</t>
-  </si>
-  <si>
-    <t>8809625244279</t>
-  </si>
-  <si>
-    <t>6700001009</t>
-  </si>
-  <si>
-    <t>8809652896120</t>
-  </si>
-  <si>
-    <t>8809652894782</t>
-  </si>
-  <si>
-    <t>8809652896106</t>
-  </si>
-  <si>
-    <t>8809625244156</t>
-  </si>
-  <si>
-    <t>8809612864350</t>
-  </si>
-  <si>
-    <t>8809707267615</t>
-  </si>
-  <si>
-    <t>8809576260601</t>
-  </si>
-  <si>
-    <t>4710660880411</t>
-  </si>
-  <si>
-    <t>4717220214709</t>
-  </si>
-  <si>
-    <t>4717220215492</t>
-  </si>
-  <si>
-    <t>4717220215713</t>
-  </si>
-  <si>
-    <t>4717220215508</t>
-  </si>
-  <si>
-    <t>4717220216239</t>
-  </si>
-  <si>
-    <t>4717220215485</t>
-  </si>
-  <si>
-    <t>4712310061324</t>
-  </si>
-  <si>
-    <t>4712568611562</t>
-  </si>
-  <si>
-    <t>4712568610527</t>
-  </si>
-  <si>
-    <t>4712568610503</t>
-  </si>
-  <si>
-    <t>4712849001235</t>
-  </si>
-  <si>
-    <t>4712849001211</t>
-  </si>
-  <si>
-    <t>4710953084533</t>
-  </si>
-  <si>
-    <t>4712849001129</t>
-  </si>
-  <si>
-    <t>4712849001297</t>
-  </si>
-  <si>
-    <t>4712849001372</t>
-  </si>
-  <si>
-    <t>4711035179970</t>
-  </si>
-  <si>
-    <t>4714388000045</t>
-  </si>
-  <si>
-    <t>4710953084557</t>
-  </si>
-  <si>
-    <t>6944284664845</t>
-  </si>
-  <si>
-    <t>6944284681774</t>
-  </si>
-  <si>
-    <t>6944284681781</t>
-  </si>
-  <si>
     <t>10825858969_152865893819</t>
   </si>
   <si>
     <t>10825858969_160647719498</t>
   </si>
   <si>
-    <t>8802550856319</t>
-  </si>
-  <si>
-    <t>5010232968967</t>
-  </si>
-  <si>
-    <t>4547691669896</t>
-  </si>
-  <si>
-    <t>5038483998816</t>
-  </si>
-  <si>
     <t>10825858969_160647719499</t>
   </si>
   <si>
-    <t>8802550816252</t>
-  </si>
-  <si>
-    <t>5010232952881</t>
-  </si>
-  <si>
     <t>10825858969_152865893818</t>
   </si>
   <si>
-    <t>5010232968950</t>
-  </si>
-  <si>
-    <t>8802550816320</t>
-  </si>
-  <si>
     <t>10825858969_152865893822</t>
   </si>
   <si>
-    <t>8850163100107</t>
-  </si>
-  <si>
     <t>10825858969_152865893821</t>
   </si>
   <si>
     <t>10825858969_152865893820</t>
   </si>
   <si>
-    <t>649528787330</t>
-  </si>
-  <si>
-    <t>740617298123</t>
-  </si>
-  <si>
-    <t>740617298727</t>
-  </si>
-  <si>
-    <t>740617298192</t>
-  </si>
-  <si>
-    <t>740617302974</t>
-  </si>
-  <si>
-    <t>740617290141</t>
-  </si>
-  <si>
-    <t>740617302912</t>
-  </si>
-  <si>
-    <t>740617301571</t>
-  </si>
-  <si>
-    <t>740617301328</t>
-  </si>
-  <si>
-    <t>740617301397</t>
-  </si>
-  <si>
-    <t>740617302851</t>
-  </si>
-  <si>
-    <t>740617295481</t>
-  </si>
-  <si>
-    <t>4971710391244</t>
-  </si>
-  <si>
-    <t>4971710391305</t>
-  </si>
-  <si>
-    <t>4971710391299</t>
-  </si>
-  <si>
-    <t>887167443471</t>
-  </si>
-  <si>
-    <t>024057274399</t>
-  </si>
-  <si>
-    <t>4971710390186</t>
-  </si>
-  <si>
-    <t>6921002646710</t>
-  </si>
-  <si>
-    <t>887276598369</t>
-  </si>
-  <si>
-    <t>718037863993</t>
-  </si>
-  <si>
-    <t>718037881027</t>
-  </si>
-  <si>
-    <t>4902370544060</t>
-  </si>
-  <si>
-    <t>619659184735</t>
-  </si>
-  <si>
-    <t>718037873879</t>
-  </si>
-  <si>
-    <t>718037850559</t>
-  </si>
-  <si>
     <t>956985-R</t>
   </si>
   <si>
-    <t>80112211</t>
-  </si>
-  <si>
-    <t>4717385949614</t>
-  </si>
-  <si>
-    <t>4895229118621</t>
-  </si>
-  <si>
-    <t>4712883419997</t>
-  </si>
-  <si>
-    <t>4712466018067</t>
-  </si>
-  <si>
-    <t>4901330642280</t>
-  </si>
-  <si>
-    <t>8993175531986</t>
-  </si>
-  <si>
-    <t>8801037005400</t>
-  </si>
-  <si>
-    <t>4710160006441</t>
-  </si>
-  <si>
-    <t>4710375110285</t>
-  </si>
-  <si>
-    <t>8851753099955</t>
-  </si>
-  <si>
-    <t>8851753099979</t>
-  </si>
-  <si>
-    <t>8851753099924</t>
-  </si>
-  <si>
-    <t>8851753099870</t>
-  </si>
-  <si>
-    <t>8993175542357</t>
-  </si>
-  <si>
-    <t>4895229107168</t>
-  </si>
-  <si>
-    <t>6970274910012</t>
-  </si>
-  <si>
-    <t>359902037</t>
-  </si>
-  <si>
-    <t>350600514</t>
-  </si>
-  <si>
-    <t>350400328</t>
-  </si>
-  <si>
-    <t>220020020044</t>
-  </si>
-  <si>
-    <t>4710273771151</t>
-  </si>
-  <si>
-    <t>4712702644135</t>
-  </si>
-  <si>
-    <t>4713435797105</t>
-  </si>
-  <si>
-    <t>4713435796641</t>
-  </si>
-  <si>
-    <t>4713218462855</t>
-  </si>
-  <si>
-    <t>4713435793947</t>
-  </si>
-  <si>
-    <t>4712702631227</t>
-  </si>
-  <si>
     <t>J0012059</t>
   </si>
   <si>
-    <t>718037863979</t>
-  </si>
-  <si>
     <t>H7675</t>
   </si>
   <si>
-    <t>718037864143</t>
-  </si>
-  <si>
-    <t>4713435796320</t>
-  </si>
-  <si>
-    <t>4713435791462</t>
-  </si>
-  <si>
-    <t>4713435791721</t>
-  </si>
-  <si>
-    <t>4713435794043</t>
-  </si>
-  <si>
-    <t>4712702644289</t>
-  </si>
-  <si>
     <t>D001</t>
   </si>
   <si>
     <t>O001</t>
   </si>
   <si>
-    <t>4711203310686</t>
-  </si>
-  <si>
-    <t>4711203310457</t>
-  </si>
-  <si>
-    <t>4711203310426</t>
-  </si>
-  <si>
-    <t>4711203310419</t>
-  </si>
-  <si>
-    <t>4711203310433</t>
-  </si>
-  <si>
     <t>1商品凹損</t>
   </si>
   <si>
@@ -1296,111 +783,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>1,000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1,200</t>
-  </si>
-  <si>
-    <t>150</t>
   </si>
   <si>
     <t>2022-03-19</t>
@@ -1813,23 +1195,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>234</v>
+      <c r="C2">
+        <v>4710887946105</v>
       </c>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" t="s">
-        <v>427</v>
+        <v>255</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
       </c>
       <c r="I2" s="2">
         <v>44639.31261574074</v>
       </c>
       <c r="J2" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1842,23 +1224,23 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>235</v>
+      <c r="C3">
+        <v>4710887942763</v>
       </c>
       <c r="F3" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H3" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>44639.31210648148</v>
       </c>
       <c r="J3" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1871,23 +1253,23 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>236</v>
+      <c r="C4">
+        <v>4710887942770</v>
       </c>
       <c r="F4" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H4" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
       </c>
       <c r="I4" s="2">
         <v>44639.31225694445</v>
       </c>
       <c r="J4" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1900,23 +1282,23 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>237</v>
+      <c r="C5">
+        <v>4710887943500</v>
       </c>
       <c r="F5" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H5" t="s">
-        <v>427</v>
+        <v>255</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
       </c>
       <c r="I5" s="2">
         <v>44639.31261574074</v>
       </c>
       <c r="J5" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1929,23 +1311,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>238</v>
+      <c r="C6">
+        <v>4710887944002</v>
       </c>
       <c r="F6" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
-      </c>
-      <c r="H6" t="s">
-        <v>429</v>
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
       </c>
       <c r="I6" s="2">
         <v>44639.31303240741</v>
       </c>
       <c r="J6" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1958,23 +1340,23 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>239</v>
+      <c r="C7">
+        <v>4710731070222</v>
       </c>
       <c r="F7" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" t="s">
-        <v>430</v>
+        <v>255</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
       </c>
       <c r="I7" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -1987,23 +1369,23 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>240</v>
+      <c r="C8">
+        <v>4710731047675</v>
       </c>
       <c r="F8" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
       </c>
       <c r="I8" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J8" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -2016,23 +1398,23 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>241</v>
+      <c r="C9">
+        <v>4710731021736</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
-      </c>
-      <c r="H9" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
       </c>
       <c r="I9" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J9" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K9">
         <v>23</v>
@@ -2045,23 +1427,23 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>242</v>
+      <c r="C10">
+        <v>4710731148235</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G10" t="s">
-        <v>426</v>
-      </c>
-      <c r="H10" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
       </c>
       <c r="I10" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J10" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K10">
         <v>23</v>
@@ -2074,26 +1456,26 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>243</v>
+      <c r="C11">
+        <v>14710731160180</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
       </c>
       <c r="I11" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J11" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K11">
         <v>23</v>
@@ -2106,23 +1488,23 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>244</v>
+      <c r="C12">
+        <v>14710731021832</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
-        <v>426</v>
-      </c>
-      <c r="H12" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
       </c>
       <c r="I12" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J12" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K12">
         <v>23</v>
@@ -2135,23 +1517,23 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>245</v>
+      <c r="C13">
+        <v>14710731030919</v>
       </c>
       <c r="F13" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H13" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
       </c>
       <c r="I13" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J13" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K13">
         <v>23</v>
@@ -2164,23 +1546,23 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>246</v>
+      <c r="C14">
+        <v>14710731030933</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>426</v>
-      </c>
-      <c r="H14" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
       </c>
       <c r="I14" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J14" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K14">
         <v>23</v>
@@ -2193,23 +1575,23 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>247</v>
+      <c r="C15">
+        <v>64710731010206</v>
       </c>
       <c r="F15" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" t="s">
-        <v>434</v>
+        <v>255</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
       </c>
       <c r="I15" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J15" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K15">
         <v>23</v>
@@ -2222,23 +1604,23 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>248</v>
+      <c r="C16">
+        <v>64710731010213</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" t="s">
-        <v>434</v>
+        <v>255</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
       </c>
       <c r="I16" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J16" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K16">
         <v>23</v>
@@ -2251,23 +1633,23 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>249</v>
+      <c r="C17">
+        <v>4710731052587</v>
       </c>
       <c r="F17" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" t="s">
-        <v>430</v>
+        <v>255</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
       </c>
       <c r="I17" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J17" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K17">
         <v>23</v>
@@ -2280,23 +1662,23 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>250</v>
+      <c r="C18">
+        <v>86923038051540</v>
       </c>
       <c r="F18" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="I18" s="2">
         <v>44639.98059027778</v>
       </c>
       <c r="J18" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K18">
         <v>23</v>
@@ -2309,23 +1691,23 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>251</v>
+      <c r="C19">
+        <v>64710731010220</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G19" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" t="s">
-        <v>434</v>
+        <v>255</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
       </c>
       <c r="I19" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J19" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K19">
         <v>23</v>
@@ -2338,23 +1720,23 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>252</v>
+      <c r="C20">
+        <v>14710731021894</v>
       </c>
       <c r="F20" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
       </c>
       <c r="I20" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J20" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K20">
         <v>23</v>
@@ -2367,23 +1749,23 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>253</v>
+      <c r="C21">
+        <v>4710731071892</v>
       </c>
       <c r="F21" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>426</v>
-      </c>
-      <c r="H21" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
       </c>
       <c r="I21" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J21" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K21">
         <v>23</v>
@@ -2396,23 +1778,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>254</v>
+      <c r="C22">
+        <v>4710731070628</v>
       </c>
       <c r="F22" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
-        <v>426</v>
-      </c>
-      <c r="H22" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
       </c>
       <c r="I22" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J22" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K22">
         <v>23</v>
@@ -2425,23 +1807,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>255</v>
+      <c r="C23">
+        <v>4710731000304</v>
       </c>
       <c r="F23" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>426</v>
-      </c>
-      <c r="H23" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J23" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K23">
         <v>23</v>
@@ -2454,23 +1836,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>256</v>
+      <c r="C24">
+        <v>4710731049419</v>
       </c>
       <c r="F24" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>426</v>
-      </c>
-      <c r="H24" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
       </c>
       <c r="I24" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J24" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K24">
         <v>23</v>
@@ -2483,23 +1865,23 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>257</v>
+      <c r="C25">
+        <v>4710731049471</v>
       </c>
       <c r="F25" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>426</v>
-      </c>
-      <c r="H25" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
       </c>
       <c r="I25" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J25" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K25">
         <v>23</v>
@@ -2512,23 +1894,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>258</v>
+      <c r="C26">
+        <v>6941399058330</v>
       </c>
       <c r="F26" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>426</v>
-      </c>
-      <c r="H26" t="s">
-        <v>436</v>
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
       </c>
       <c r="I26" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J26" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K26">
         <v>23</v>
@@ -2541,23 +1923,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>259</v>
+      <c r="C27">
+        <v>6941399014930</v>
       </c>
       <c r="F27" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>426</v>
-      </c>
-      <c r="H27" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
       </c>
       <c r="I27" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J27" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K27">
         <v>23</v>
@@ -2570,23 +1952,23 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>260</v>
+      <c r="C28">
+        <v>6941399046801</v>
       </c>
       <c r="F28" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H28" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
       </c>
       <c r="I28" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J28" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K28">
         <v>23</v>
@@ -2599,23 +1981,23 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>261</v>
+      <c r="C29">
+        <v>6941399057586</v>
       </c>
       <c r="F29" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>426</v>
-      </c>
-      <c r="H29" t="s">
-        <v>436</v>
+        <v>255</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
       </c>
       <c r="I29" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J29" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K29">
         <v>23</v>
@@ -2628,23 +2010,23 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>262</v>
+      <c r="C30">
+        <v>6941399062061</v>
       </c>
       <c r="F30" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>426</v>
-      </c>
-      <c r="H30" t="s">
-        <v>438</v>
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>250</v>
       </c>
       <c r="I30" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J30" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K30">
         <v>23</v>
@@ -2657,23 +2039,23 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>263</v>
+      <c r="C31">
+        <v>6944284677937</v>
       </c>
       <c r="F31" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>426</v>
-      </c>
-      <c r="H31" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
       </c>
       <c r="I31" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J31" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -2686,23 +2068,23 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>264</v>
+      <c r="C32">
+        <v>6944284695788</v>
       </c>
       <c r="F32" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>426</v>
-      </c>
-      <c r="H32" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
       </c>
       <c r="I32" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J32" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K32">
         <v>23</v>
@@ -2715,23 +2097,23 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>265</v>
+      <c r="C33">
+        <v>6944284695771</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>426</v>
-      </c>
-      <c r="H33" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
       </c>
       <c r="I33" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J33" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K33">
         <v>23</v>
@@ -2744,23 +2126,23 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>266</v>
+      <c r="C34">
+        <v>6941399014978</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>426</v>
-      </c>
-      <c r="H34" t="s">
-        <v>441</v>
+        <v>255</v>
+      </c>
+      <c r="H34">
+        <v>56</v>
       </c>
       <c r="I34" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J34" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K34">
         <v>23</v>
@@ -2773,23 +2155,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>267</v>
+      <c r="C35">
+        <v>6941399040687</v>
       </c>
       <c r="F35" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
-        <v>426</v>
-      </c>
-      <c r="H35" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
       </c>
       <c r="I35" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J35" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K35">
         <v>23</v>
@@ -2802,23 +2184,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>268</v>
+      <c r="C36">
+        <v>6944284697249</v>
       </c>
       <c r="F36" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>426</v>
-      </c>
-      <c r="H36" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
       </c>
       <c r="I36" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J36" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K36">
         <v>23</v>
@@ -2831,23 +2213,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>269</v>
+      <c r="C37">
+        <v>6941399062054</v>
       </c>
       <c r="F37" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>426</v>
-      </c>
-      <c r="H37" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
       </c>
       <c r="I37" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J37" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K37">
         <v>23</v>
@@ -2860,23 +2242,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>270</v>
+      <c r="C38">
+        <v>6941399057579</v>
       </c>
       <c r="F38" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
-        <v>426</v>
-      </c>
-      <c r="H38" t="s">
-        <v>436</v>
+        <v>255</v>
+      </c>
+      <c r="H38">
+        <v>200</v>
       </c>
       <c r="I38" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J38" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K38">
         <v>23</v>
@@ -2889,23 +2271,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>271</v>
+      <c r="C39">
+        <v>6941399058347</v>
       </c>
       <c r="F39" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G39" t="s">
-        <v>426</v>
-      </c>
-      <c r="H39" t="s">
-        <v>436</v>
+        <v>255</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
       </c>
       <c r="I39" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J39" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K39">
         <v>23</v>
@@ -2919,22 +2301,22 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>426</v>
-      </c>
-      <c r="H40" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
       </c>
       <c r="I40" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J40" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K40">
         <v>23</v>
@@ -2947,23 +2329,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>273</v>
+      <c r="C41">
+        <v>6941399014954</v>
       </c>
       <c r="F41" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
-        <v>426</v>
-      </c>
-      <c r="H41" t="s">
-        <v>442</v>
+        <v>255</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="I41" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J41" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K41">
         <v>23</v>
@@ -2976,23 +2358,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>274</v>
+      <c r="C42">
+        <v>8806403162817</v>
       </c>
       <c r="F42" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>426</v>
-      </c>
-      <c r="H42" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
       </c>
       <c r="I42" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J42" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K42">
         <v>23</v>
@@ -3005,23 +2387,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>275</v>
+      <c r="C43">
+        <v>8806403117534</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>426</v>
-      </c>
-      <c r="H43" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
       </c>
       <c r="I43" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J43" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K43">
         <v>23</v>
@@ -3034,23 +2416,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>276</v>
+      <c r="C44">
+        <v>8809612851862</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
-        <v>426</v>
-      </c>
-      <c r="H44" t="s">
-        <v>443</v>
+        <v>255</v>
+      </c>
+      <c r="H44">
+        <v>48</v>
       </c>
       <c r="I44" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J44" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K44">
         <v>23</v>
@@ -3063,26 +2445,26 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>277</v>
+      <c r="C45">
+        <v>8809707252321</v>
       </c>
       <c r="D45" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>426</v>
-      </c>
-      <c r="H45" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H45">
+        <v>24</v>
       </c>
       <c r="I45" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J45" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K45">
         <v>23</v>
@@ -3095,26 +2477,26 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>278</v>
+      <c r="C46">
+        <v>8809707252710</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>426</v>
-      </c>
-      <c r="H46" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
       </c>
       <c r="I46" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J46" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K46">
         <v>23</v>
@@ -3127,23 +2509,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>279</v>
+      <c r="C47">
+        <v>8809612852586</v>
       </c>
       <c r="F47" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>426</v>
-      </c>
-      <c r="H47" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
       </c>
       <c r="I47" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J47" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K47">
         <v>23</v>
@@ -3156,23 +2538,23 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>280</v>
+      <c r="C48">
+        <v>8809612877879</v>
       </c>
       <c r="F48" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
-        <v>426</v>
-      </c>
-      <c r="H48" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
       </c>
       <c r="I48" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J48" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K48">
         <v>23</v>
@@ -3185,23 +2567,23 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>281</v>
+      <c r="C49">
+        <v>8809612877909</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>426</v>
-      </c>
-      <c r="H49" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
       </c>
       <c r="I49" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J49" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K49">
         <v>23</v>
@@ -3214,26 +2596,26 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>282</v>
+      <c r="C50">
+        <v>8809612877862</v>
       </c>
       <c r="D50" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
-        <v>426</v>
-      </c>
-      <c r="H50" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
       </c>
       <c r="I50" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J50" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K50">
         <v>23</v>
@@ -3246,26 +2628,26 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>283</v>
+      <c r="C51">
+        <v>8809576261202</v>
       </c>
       <c r="D51" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>426</v>
-      </c>
-      <c r="H51" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
       </c>
       <c r="I51" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J51" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K51">
         <v>23</v>
@@ -3279,22 +2661,22 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
-        <v>426</v>
-      </c>
-      <c r="H52" t="s">
-        <v>430</v>
+        <v>255</v>
+      </c>
+      <c r="H52">
+        <v>36</v>
       </c>
       <c r="I52" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J52" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K52">
         <v>23</v>
@@ -3308,22 +2690,22 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>426</v>
-      </c>
-      <c r="H53" t="s">
-        <v>430</v>
+        <v>255</v>
+      </c>
+      <c r="H53">
+        <v>36</v>
       </c>
       <c r="I53" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J53" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K53">
         <v>23</v>
@@ -3337,22 +2719,22 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
-      </c>
-      <c r="H54" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
       </c>
       <c r="I54" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K54">
         <v>23</v>
@@ -3365,23 +2747,23 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>287</v>
+      <c r="C55">
+        <v>8809668022490</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>426</v>
-      </c>
-      <c r="H55" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
       </c>
       <c r="I55" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J55" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K55">
         <v>23</v>
@@ -3394,23 +2776,23 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
-        <v>288</v>
+      <c r="C56">
+        <v>8809668022469</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G56" t="s">
-        <v>426</v>
-      </c>
-      <c r="H56" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
       </c>
       <c r="I56" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J56" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K56">
         <v>23</v>
@@ -3423,23 +2805,23 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>289</v>
+      <c r="C57">
+        <v>8809668022506</v>
       </c>
       <c r="F57" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G57" t="s">
-        <v>426</v>
-      </c>
-      <c r="H57" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
       </c>
       <c r="I57" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J57" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K57">
         <v>23</v>
@@ -3452,23 +2834,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>290</v>
+      <c r="C58">
+        <v>8809652894799</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>426</v>
-      </c>
-      <c r="H58" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
       </c>
       <c r="I58" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J58" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K58">
         <v>23</v>
@@ -3481,26 +2863,26 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>291</v>
+      <c r="C59">
+        <v>6700001016</v>
       </c>
       <c r="D59" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F59" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>426</v>
-      </c>
-      <c r="H59" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
       </c>
       <c r="I59" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J59" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K59">
         <v>23</v>
@@ -3513,23 +2895,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>292</v>
+      <c r="C60">
+        <v>8809625244170</v>
       </c>
       <c r="F60" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G60" t="s">
-        <v>426</v>
-      </c>
-      <c r="H60" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
       </c>
       <c r="I60" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J60" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K60">
         <v>23</v>
@@ -3542,23 +2924,23 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>293</v>
+      <c r="C61">
+        <v>8809652896113</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
-        <v>426</v>
-      </c>
-      <c r="H61" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
       </c>
       <c r="I61" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J61" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K61">
         <v>23</v>
@@ -3571,23 +2953,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>294</v>
+      <c r="C62">
+        <v>8809625244231</v>
       </c>
       <c r="F62" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G62" t="s">
-        <v>426</v>
-      </c>
-      <c r="H62" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
       </c>
       <c r="I62" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J62" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K62">
         <v>23</v>
@@ -3600,23 +2982,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>295</v>
+      <c r="C63">
+        <v>8809625244293</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>426</v>
-      </c>
-      <c r="H63" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
       </c>
       <c r="I63" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J63" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K63">
         <v>23</v>
@@ -3629,23 +3011,23 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
-        <v>296</v>
+      <c r="C64">
+        <v>8809625244149</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>426</v>
-      </c>
-      <c r="H64" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
       </c>
       <c r="I64" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J64" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K64">
         <v>23</v>
@@ -3658,23 +3040,23 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
-        <v>297</v>
+      <c r="C65">
+        <v>8809625244200</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
-        <v>426</v>
-      </c>
-      <c r="H65" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
       </c>
       <c r="I65" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J65" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K65">
         <v>23</v>
@@ -3687,23 +3069,23 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
-        <v>298</v>
+      <c r="C66">
+        <v>8809625244286</v>
       </c>
       <c r="F66" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G66" t="s">
-        <v>426</v>
-      </c>
-      <c r="H66" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
       </c>
       <c r="I66" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J66" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K66">
         <v>23</v>
@@ -3716,23 +3098,23 @@
       <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
-        <v>299</v>
+      <c r="C67">
+        <v>8809625244187</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G67" t="s">
-        <v>426</v>
-      </c>
-      <c r="H67" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
       </c>
       <c r="I67" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J67" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K67">
         <v>23</v>
@@ -3745,23 +3127,23 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>300</v>
+      <c r="C68">
+        <v>8809625244194</v>
       </c>
       <c r="F68" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G68" t="s">
-        <v>426</v>
-      </c>
-      <c r="H68" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
       </c>
       <c r="I68" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J68" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K68">
         <v>23</v>
@@ -3774,23 +3156,23 @@
       <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
-        <v>301</v>
+      <c r="C69">
+        <v>8809625244316</v>
       </c>
       <c r="F69" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
-        <v>426</v>
-      </c>
-      <c r="H69" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
       </c>
       <c r="I69" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J69" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K69">
         <v>23</v>
@@ -3803,23 +3185,23 @@
       <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="C70" t="s">
-        <v>302</v>
+      <c r="C70">
+        <v>8809625244279</v>
       </c>
       <c r="F70" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>426</v>
-      </c>
-      <c r="H70" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J70" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K70">
         <v>23</v>
@@ -3832,23 +3214,23 @@
       <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
-        <v>303</v>
+      <c r="C71">
+        <v>6700001009</v>
       </c>
       <c r="F71" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G71" t="s">
-        <v>426</v>
-      </c>
-      <c r="H71" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
       </c>
       <c r="I71" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J71" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K71">
         <v>23</v>
@@ -3861,23 +3243,23 @@
       <c r="B72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>304</v>
+      <c r="C72">
+        <v>8809652896120</v>
       </c>
       <c r="F72" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>426</v>
-      </c>
-      <c r="H72" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H72">
+        <v>12</v>
       </c>
       <c r="I72" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J72" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K72">
         <v>23</v>
@@ -3890,23 +3272,23 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
-        <v>305</v>
+      <c r="C73">
+        <v>8809652894782</v>
       </c>
       <c r="F73" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G73" t="s">
-        <v>426</v>
-      </c>
-      <c r="H73" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H73">
+        <v>12</v>
       </c>
       <c r="I73" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J73" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K73">
         <v>23</v>
@@ -3919,23 +3301,23 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
-        <v>306</v>
+      <c r="C74">
+        <v>8809652896106</v>
       </c>
       <c r="F74" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G74" t="s">
-        <v>426</v>
-      </c>
-      <c r="H74" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H74">
+        <v>24</v>
       </c>
       <c r="I74" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J74" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K74">
         <v>23</v>
@@ -3948,23 +3330,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>307</v>
+      <c r="C75">
+        <v>8809625244156</v>
       </c>
       <c r="F75" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G75" t="s">
-        <v>426</v>
-      </c>
-      <c r="H75" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H75">
+        <v>12</v>
       </c>
       <c r="I75" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J75" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K75">
         <v>23</v>
@@ -3977,23 +3359,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>308</v>
+      <c r="C76">
+        <v>8809612864350</v>
       </c>
       <c r="F76" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G76" t="s">
-        <v>426</v>
-      </c>
-      <c r="H76" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
       </c>
       <c r="I76" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J76" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K76">
         <v>23</v>
@@ -4006,23 +3388,23 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>309</v>
+      <c r="C77">
+        <v>8809707267615</v>
       </c>
       <c r="F77" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G77" t="s">
-        <v>426</v>
-      </c>
-      <c r="H77" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H77">
+        <v>24</v>
       </c>
       <c r="I77" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J77" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K77">
         <v>23</v>
@@ -4035,23 +3417,23 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>310</v>
+      <c r="C78">
+        <v>8809576260601</v>
       </c>
       <c r="F78" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>426</v>
-      </c>
-      <c r="H78" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
       </c>
       <c r="I78" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J78" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K78">
         <v>23</v>
@@ -4064,23 +3446,23 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>311</v>
+      <c r="C79">
+        <v>4710660880411</v>
       </c>
       <c r="F79" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
-        <v>426</v>
-      </c>
-      <c r="H79" t="s">
-        <v>442</v>
+        <v>255</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
       <c r="I79" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J79" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K79">
         <v>23</v>
@@ -4093,23 +3475,23 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>312</v>
+      <c r="C80">
+        <v>4717220214709</v>
       </c>
       <c r="F80" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
-        <v>426</v>
-      </c>
-      <c r="H80" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
       </c>
       <c r="I80" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J80" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K80">
         <v>23</v>
@@ -4122,23 +3504,23 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>313</v>
+      <c r="C81">
+        <v>4717220215492</v>
       </c>
       <c r="F81" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G81" t="s">
-        <v>426</v>
-      </c>
-      <c r="H81" t="s">
-        <v>447</v>
+        <v>255</v>
+      </c>
+      <c r="H81">
+        <v>240</v>
       </c>
       <c r="I81" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J81" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K81">
         <v>23</v>
@@ -4151,23 +3533,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>314</v>
+      <c r="C82">
+        <v>4717220215713</v>
       </c>
       <c r="F82" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
-        <v>426</v>
-      </c>
-      <c r="H82" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
       </c>
       <c r="I82" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J82" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K82">
         <v>23</v>
@@ -4180,23 +3562,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>315</v>
+      <c r="C83">
+        <v>4717220215508</v>
       </c>
       <c r="F83" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G83" t="s">
-        <v>426</v>
-      </c>
-      <c r="H83" t="s">
-        <v>448</v>
+        <v>255</v>
+      </c>
+      <c r="H83">
+        <v>40</v>
       </c>
       <c r="I83" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J83" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K83">
         <v>23</v>
@@ -4209,23 +3591,23 @@
       <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
-        <v>316</v>
+      <c r="C84">
+        <v>4717220216239</v>
       </c>
       <c r="F84" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G84" t="s">
-        <v>426</v>
-      </c>
-      <c r="H84" t="s">
-        <v>427</v>
+        <v>255</v>
+      </c>
+      <c r="H84">
+        <v>80</v>
       </c>
       <c r="I84" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J84" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K84">
         <v>23</v>
@@ -4238,23 +3620,23 @@
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
-        <v>317</v>
+      <c r="C85">
+        <v>4717220215485</v>
       </c>
       <c r="F85" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G85" t="s">
-        <v>426</v>
-      </c>
-      <c r="H85" t="s">
-        <v>429</v>
+        <v>255</v>
+      </c>
+      <c r="H85">
+        <v>120</v>
       </c>
       <c r="I85" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J85" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K85">
         <v>23</v>
@@ -4267,23 +3649,23 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>318</v>
+      <c r="C86">
+        <v>4712310061324</v>
       </c>
       <c r="F86" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G86" t="s">
-        <v>426</v>
-      </c>
-      <c r="H86" t="s">
-        <v>449</v>
+        <v>255</v>
+      </c>
+      <c r="H86">
+        <v>180</v>
       </c>
       <c r="I86" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J86" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K86">
         <v>23</v>
@@ -4296,23 +3678,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>319</v>
+      <c r="C87">
+        <v>4712568611562</v>
       </c>
       <c r="F87" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G87" t="s">
-        <v>426</v>
-      </c>
-      <c r="H87" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H87">
+        <v>24</v>
       </c>
       <c r="I87" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J87" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K87">
         <v>23</v>
@@ -4325,23 +3707,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>320</v>
+      <c r="C88">
+        <v>4712568610527</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G88" t="s">
-        <v>426</v>
-      </c>
-      <c r="H88" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H88">
+        <v>12</v>
       </c>
       <c r="I88" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J88" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K88">
         <v>23</v>
@@ -4354,23 +3736,23 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>321</v>
+      <c r="C89">
+        <v>4712568610503</v>
       </c>
       <c r="F89" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G89" t="s">
-        <v>426</v>
-      </c>
-      <c r="H89" t="s">
-        <v>450</v>
+        <v>255</v>
+      </c>
+      <c r="H89">
+        <v>18</v>
       </c>
       <c r="I89" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J89" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K89">
         <v>23</v>
@@ -4383,23 +3765,23 @@
       <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
-        <v>322</v>
+      <c r="C90">
+        <v>4712849001235</v>
       </c>
       <c r="F90" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
-        <v>426</v>
-      </c>
-      <c r="H90" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
       </c>
       <c r="I90" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J90" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K90">
         <v>23</v>
@@ -4412,23 +3794,23 @@
       <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="C91" t="s">
-        <v>323</v>
+      <c r="C91">
+        <v>4712849001211</v>
       </c>
       <c r="F91" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G91" t="s">
-        <v>426</v>
-      </c>
-      <c r="H91" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
       </c>
       <c r="I91" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J91" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K91">
         <v>23</v>
@@ -4441,23 +3823,23 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>324</v>
+      <c r="C92">
+        <v>4710953084533</v>
       </c>
       <c r="F92" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G92" t="s">
-        <v>426</v>
-      </c>
-      <c r="H92" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
       </c>
       <c r="I92" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J92" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K92">
         <v>23</v>
@@ -4470,23 +3852,23 @@
       <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
-        <v>325</v>
+      <c r="C93">
+        <v>4712849001129</v>
       </c>
       <c r="F93" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G93" t="s">
-        <v>426</v>
-      </c>
-      <c r="H93" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
       </c>
       <c r="I93" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J93" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K93">
         <v>23</v>
@@ -4499,23 +3881,23 @@
       <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
-        <v>326</v>
+      <c r="C94">
+        <v>4712849001297</v>
       </c>
       <c r="F94" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G94" t="s">
-        <v>426</v>
-      </c>
-      <c r="H94" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
       </c>
       <c r="I94" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J94" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K94">
         <v>23</v>
@@ -4528,23 +3910,23 @@
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" t="s">
-        <v>327</v>
+      <c r="C95">
+        <v>4712849001372</v>
       </c>
       <c r="F95" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G95" t="s">
-        <v>426</v>
-      </c>
-      <c r="H95" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
       </c>
       <c r="I95" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J95" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K95">
         <v>23</v>
@@ -4557,23 +3939,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>328</v>
+      <c r="C96">
+        <v>4711035179970</v>
       </c>
       <c r="F96" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G96" t="s">
-        <v>426</v>
-      </c>
-      <c r="H96" t="s">
-        <v>451</v>
+        <v>255</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
       </c>
       <c r="I96" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J96" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K96">
         <v>23</v>
@@ -4586,23 +3968,23 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>329</v>
+      <c r="C97">
+        <v>4714388000045</v>
       </c>
       <c r="F97" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G97" t="s">
-        <v>426</v>
-      </c>
-      <c r="H97" t="s">
-        <v>451</v>
+        <v>255</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
       </c>
       <c r="I97" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J97" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K97">
         <v>23</v>
@@ -4615,23 +3997,23 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" t="s">
-        <v>330</v>
+      <c r="C98">
+        <v>4710953084557</v>
       </c>
       <c r="F98" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G98" t="s">
-        <v>426</v>
-      </c>
-      <c r="H98" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
       </c>
       <c r="I98" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J98" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K98">
         <v>23</v>
@@ -4644,23 +4026,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>331</v>
+      <c r="C99">
+        <v>6944284664845</v>
       </c>
       <c r="F99" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G99" t="s">
-        <v>426</v>
-      </c>
-      <c r="H99" t="s">
-        <v>452</v>
+        <v>255</v>
+      </c>
+      <c r="H99">
+        <v>31</v>
       </c>
       <c r="I99" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J99" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K99">
         <v>23</v>
@@ -4673,23 +4055,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>332</v>
+      <c r="C100">
+        <v>6944284681774</v>
       </c>
       <c r="F100" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G100" t="s">
-        <v>426</v>
-      </c>
-      <c r="H100" t="s">
-        <v>453</v>
+        <v>255</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
       </c>
       <c r="I100" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J100" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K100">
         <v>23</v>
@@ -4702,23 +4084,23 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>333</v>
+      <c r="C101">
+        <v>6944284681781</v>
       </c>
       <c r="F101" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G101" t="s">
-        <v>426</v>
-      </c>
-      <c r="H101" t="s">
-        <v>442</v>
+        <v>255</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
       </c>
       <c r="I101" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J101" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K101">
         <v>23</v>
@@ -4732,22 +4114,22 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G102" t="s">
-        <v>426</v>
-      </c>
-      <c r="H102" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H102">
+        <v>30</v>
       </c>
       <c r="I102" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J102" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K102">
         <v>23</v>
@@ -4761,22 +4143,22 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="F103" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G103" t="s">
-        <v>426</v>
-      </c>
-      <c r="H103" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
       </c>
       <c r="I103" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J103" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K103">
         <v>23</v>
@@ -4789,23 +4171,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>336</v>
+      <c r="C104">
+        <v>8802550856319</v>
       </c>
       <c r="F104" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G104" t="s">
-        <v>426</v>
-      </c>
-      <c r="H104" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
       </c>
       <c r="I104" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J104" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K104">
         <v>23</v>
@@ -4818,23 +4200,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>337</v>
+      <c r="C105">
+        <v>5010232968967</v>
       </c>
       <c r="F105" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G105" t="s">
-        <v>426</v>
-      </c>
-      <c r="H105" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
       </c>
       <c r="I105" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J105" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K105">
         <v>23</v>
@@ -4847,23 +4229,23 @@
       <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C106" t="s">
-        <v>338</v>
+      <c r="C106">
+        <v>4547691669896</v>
       </c>
       <c r="F106" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G106" t="s">
-        <v>426</v>
-      </c>
-      <c r="H106" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
       </c>
       <c r="I106" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J106" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K106">
         <v>23</v>
@@ -4876,23 +4258,23 @@
       <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
-        <v>339</v>
+      <c r="C107">
+        <v>5038483998816</v>
       </c>
       <c r="F107" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G107" t="s">
-        <v>426</v>
-      </c>
-      <c r="H107" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
       </c>
       <c r="I107" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J107" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K107">
         <v>23</v>
@@ -4906,22 +4288,22 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G108" t="s">
-        <v>426</v>
-      </c>
-      <c r="H108" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H108">
+        <v>60</v>
       </c>
       <c r="I108" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J108" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K108">
         <v>23</v>
@@ -4934,23 +4316,23 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="s">
-        <v>341</v>
+      <c r="C109">
+        <v>8802550816252</v>
       </c>
       <c r="F109" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G109" t="s">
-        <v>426</v>
-      </c>
-      <c r="H109" t="s">
-        <v>454</v>
+        <v>255</v>
+      </c>
+      <c r="H109">
+        <v>96</v>
       </c>
       <c r="I109" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J109" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K109">
         <v>23</v>
@@ -4963,23 +4345,23 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="s">
-        <v>342</v>
+      <c r="C110">
+        <v>5010232952881</v>
       </c>
       <c r="F110" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G110" t="s">
-        <v>426</v>
-      </c>
-      <c r="H110" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H110">
+        <v>60</v>
       </c>
       <c r="I110" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J110" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K110">
         <v>23</v>
@@ -4993,22 +4375,22 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>241</v>
       </c>
       <c r="F111" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G111" t="s">
-        <v>426</v>
-      </c>
-      <c r="H111" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
       </c>
       <c r="I111" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K111">
         <v>23</v>
@@ -5021,23 +4403,23 @@
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>344</v>
+      <c r="C112">
+        <v>5010232968950</v>
       </c>
       <c r="F112" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G112" t="s">
-        <v>426</v>
-      </c>
-      <c r="H112" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H112">
+        <v>60</v>
       </c>
       <c r="I112" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J112" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K112">
         <v>23</v>
@@ -5050,23 +4432,23 @@
       <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C113" t="s">
-        <v>345</v>
+      <c r="C113">
+        <v>8802550816320</v>
       </c>
       <c r="F113" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G113" t="s">
-        <v>426</v>
-      </c>
-      <c r="H113" t="s">
-        <v>444</v>
+        <v>255</v>
+      </c>
+      <c r="H113">
+        <v>24</v>
       </c>
       <c r="I113" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J113" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K113">
         <v>23</v>
@@ -5080,22 +4462,22 @@
         <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="F114" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G114" t="s">
-        <v>426</v>
-      </c>
-      <c r="H114" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H114">
+        <v>30</v>
       </c>
       <c r="I114" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J114" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K114">
         <v>23</v>
@@ -5108,23 +4490,23 @@
       <c r="B115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
-        <v>347</v>
+      <c r="C115">
+        <v>8850163100107</v>
       </c>
       <c r="F115" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G115" t="s">
-        <v>426</v>
-      </c>
-      <c r="H115" t="s">
-        <v>455</v>
+        <v>255</v>
+      </c>
+      <c r="H115">
+        <v>1000</v>
       </c>
       <c r="I115" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J115" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K115">
         <v>23</v>
@@ -5138,22 +4520,22 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="F116" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G116" t="s">
-        <v>426</v>
-      </c>
-      <c r="H116" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H116">
+        <v>30</v>
       </c>
       <c r="I116" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J116" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K116">
         <v>23</v>
@@ -5167,22 +4549,22 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="F117" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G117" t="s">
-        <v>426</v>
-      </c>
-      <c r="H117" t="s">
-        <v>440</v>
+        <v>255</v>
+      </c>
+      <c r="H117">
+        <v>30</v>
       </c>
       <c r="I117" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J117" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K117">
         <v>23</v>
@@ -5195,23 +4577,23 @@
       <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C118" t="s">
-        <v>350</v>
+      <c r="C118">
+        <v>649528787330</v>
       </c>
       <c r="F118" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G118" t="s">
-        <v>426</v>
-      </c>
-      <c r="H118" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
       </c>
       <c r="I118" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J118" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K118">
         <v>23</v>
@@ -5224,23 +4606,23 @@
       <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C119" t="s">
-        <v>351</v>
+      <c r="C119">
+        <v>740617298123</v>
       </c>
       <c r="F119" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G119" t="s">
-        <v>426</v>
-      </c>
-      <c r="H119" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
       </c>
       <c r="I119" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J119" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K119">
         <v>23</v>
@@ -5253,23 +4635,23 @@
       <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>352</v>
+      <c r="C120">
+        <v>740617298727</v>
       </c>
       <c r="F120" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G120" t="s">
-        <v>426</v>
-      </c>
-      <c r="H120" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
       </c>
       <c r="I120" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J120" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K120">
         <v>23</v>
@@ -5282,23 +4664,23 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>353</v>
+      <c r="C121">
+        <v>740617298192</v>
       </c>
       <c r="F121" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G121" t="s">
-        <v>426</v>
-      </c>
-      <c r="H121" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
       </c>
       <c r="I121" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J121" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K121">
         <v>23</v>
@@ -5311,23 +4693,23 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>354</v>
+      <c r="C122">
+        <v>740617302974</v>
       </c>
       <c r="F122" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G122" t="s">
-        <v>426</v>
-      </c>
-      <c r="H122" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
       </c>
       <c r="I122" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J122" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K122">
         <v>23</v>
@@ -5340,23 +4722,23 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>355</v>
+      <c r="C123">
+        <v>740617290141</v>
       </c>
       <c r="F123" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G123" t="s">
-        <v>426</v>
-      </c>
-      <c r="H123" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
       </c>
       <c r="I123" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J123" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K123">
         <v>23</v>
@@ -5369,23 +4751,23 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>356</v>
+      <c r="C124">
+        <v>740617302912</v>
       </c>
       <c r="F124" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G124" t="s">
-        <v>426</v>
-      </c>
-      <c r="H124" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
       </c>
       <c r="I124" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J124" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K124">
         <v>23</v>
@@ -5398,23 +4780,23 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>357</v>
+      <c r="C125">
+        <v>740617301571</v>
       </c>
       <c r="F125" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G125" t="s">
-        <v>426</v>
-      </c>
-      <c r="H125" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
       </c>
       <c r="I125" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J125" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K125">
         <v>23</v>
@@ -5427,23 +4809,23 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>358</v>
+      <c r="C126">
+        <v>740617301328</v>
       </c>
       <c r="F126" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G126" t="s">
-        <v>426</v>
-      </c>
-      <c r="H126" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
       </c>
       <c r="I126" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J126" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K126">
         <v>23</v>
@@ -5456,23 +4838,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>359</v>
+      <c r="C127">
+        <v>740617301397</v>
       </c>
       <c r="F127" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G127" t="s">
-        <v>426</v>
-      </c>
-      <c r="H127" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H127">
+        <v>10</v>
       </c>
       <c r="I127" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J127" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K127">
         <v>23</v>
@@ -5485,23 +4867,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>360</v>
+      <c r="C128">
+        <v>740617302851</v>
       </c>
       <c r="F128" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G128" t="s">
-        <v>426</v>
-      </c>
-      <c r="H128" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H128">
+        <v>5</v>
       </c>
       <c r="I128" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J128" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K128">
         <v>23</v>
@@ -5514,23 +4896,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>361</v>
+      <c r="C129">
+        <v>740617295481</v>
       </c>
       <c r="F129" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G129" t="s">
-        <v>426</v>
-      </c>
-      <c r="H129" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
       </c>
       <c r="I129" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J129" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K129">
         <v>23</v>
@@ -5543,20 +4925,20 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>362</v>
+      <c r="C130">
+        <v>4971710391244</v>
       </c>
       <c r="F130" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G130" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I130" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J130" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K130">
         <v>23</v>
@@ -5569,20 +4951,20 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>363</v>
+      <c r="C131">
+        <v>4971710391305</v>
       </c>
       <c r="F131" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G131" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I131" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J131" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K131">
         <v>23</v>
@@ -5595,20 +4977,20 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>364</v>
+      <c r="C132">
+        <v>4971710391299</v>
       </c>
       <c r="F132" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G132" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I132" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J132" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K132">
         <v>23</v>
@@ -5621,23 +5003,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>365</v>
+      <c r="C133">
+        <v>887167443471</v>
       </c>
       <c r="F133" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G133" t="s">
-        <v>426</v>
-      </c>
-      <c r="H133" t="s">
-        <v>457</v>
+        <v>255</v>
+      </c>
+      <c r="H133">
+        <v>25</v>
       </c>
       <c r="I133" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J133" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K133">
         <v>23</v>
@@ -5650,20 +5032,20 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>366</v>
+      <c r="C134">
+        <v>24057274399</v>
       </c>
       <c r="F134" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G134" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I134" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J134" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K134">
         <v>23</v>
@@ -5676,20 +5058,20 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>367</v>
+      <c r="C135">
+        <v>4971710390186</v>
       </c>
       <c r="F135" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G135" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I135" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J135" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K135">
         <v>23</v>
@@ -5702,23 +5084,23 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>368</v>
+      <c r="C136">
+        <v>6921002646710</v>
       </c>
       <c r="F136" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G136" t="s">
-        <v>426</v>
-      </c>
-      <c r="H136" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H136">
+        <v>20</v>
       </c>
       <c r="I136" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J136" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K136">
         <v>23</v>
@@ -5731,26 +5113,26 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>369</v>
+      <c r="C137">
+        <v>887276598369</v>
       </c>
       <c r="D137" t="s">
-        <v>423</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G137" t="s">
-        <v>426</v>
-      </c>
-      <c r="H137" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
       </c>
       <c r="I137" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J137" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K137">
         <v>23</v>
@@ -5763,23 +5145,23 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>370</v>
+      <c r="C138">
+        <v>718037863993</v>
       </c>
       <c r="F138" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G138" t="s">
-        <v>426</v>
-      </c>
-      <c r="H138" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
       </c>
       <c r="I138" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J138" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K138">
         <v>23</v>
@@ -5792,26 +5174,26 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>371</v>
+      <c r="C139">
+        <v>718037881027</v>
       </c>
       <c r="D139" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="F139" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G139" t="s">
-        <v>426</v>
-      </c>
-      <c r="H139" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
       </c>
       <c r="I139" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J139" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K139">
         <v>23</v>
@@ -5824,23 +5206,23 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>372</v>
+      <c r="C140">
+        <v>4902370544060</v>
       </c>
       <c r="D140" t="s">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G140" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I140" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J140" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K140">
         <v>23</v>
@@ -5853,23 +5235,23 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>373</v>
+      <c r="C141">
+        <v>619659184735</v>
       </c>
       <c r="F141" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G141" t="s">
-        <v>426</v>
-      </c>
-      <c r="H141" t="s">
-        <v>442</v>
+        <v>255</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
       </c>
       <c r="I141" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J141" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K141">
         <v>23</v>
@@ -5882,23 +5264,23 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>374</v>
+      <c r="C142">
+        <v>718037873879</v>
       </c>
       <c r="F142" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G142" t="s">
-        <v>426</v>
-      </c>
-      <c r="H142" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
       </c>
       <c r="I142" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J142" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K142">
         <v>23</v>
@@ -5911,23 +5293,23 @@
       <c r="B143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>375</v>
+      <c r="C143">
+        <v>718037850559</v>
       </c>
       <c r="F143" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G143" t="s">
-        <v>426</v>
-      </c>
-      <c r="H143" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
       </c>
       <c r="I143" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J143" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K143">
         <v>23</v>
@@ -5941,22 +5323,22 @@
         <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="F144" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G144" t="s">
-        <v>426</v>
-      </c>
-      <c r="H144" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H144">
+        <v>20</v>
       </c>
       <c r="I144" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J144" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K144">
         <v>23</v>
@@ -5969,23 +5351,23 @@
       <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>377</v>
+      <c r="C145">
+        <v>80112211</v>
       </c>
       <c r="F145" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G145" t="s">
-        <v>426</v>
-      </c>
-      <c r="H145" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
       </c>
       <c r="I145" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J145" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K145">
         <v>23</v>
@@ -5998,23 +5380,23 @@
       <c r="B146" t="s">
         <v>155</v>
       </c>
-      <c r="C146" t="s">
-        <v>378</v>
+      <c r="C146">
+        <v>4717385949614</v>
       </c>
       <c r="F146" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G146" t="s">
-        <v>426</v>
-      </c>
-      <c r="H146" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
       </c>
       <c r="I146" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J146" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K146">
         <v>23</v>
@@ -6027,23 +5409,23 @@
       <c r="B147" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>379</v>
+      <c r="C147">
+        <v>4895229118621</v>
       </c>
       <c r="F147" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G147" t="s">
-        <v>426</v>
-      </c>
-      <c r="H147" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
       </c>
       <c r="I147" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J147" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K147">
         <v>23</v>
@@ -6056,23 +5438,23 @@
       <c r="B148" t="s">
         <v>157</v>
       </c>
-      <c r="C148" t="s">
-        <v>380</v>
+      <c r="C148">
+        <v>4712883419997</v>
       </c>
       <c r="F148" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G148" t="s">
-        <v>426</v>
-      </c>
-      <c r="H148" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H148">
+        <v>5</v>
       </c>
       <c r="I148" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J148" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K148">
         <v>23</v>
@@ -6085,23 +5467,23 @@
       <c r="B149" t="s">
         <v>158</v>
       </c>
-      <c r="C149" t="s">
-        <v>381</v>
+      <c r="C149">
+        <v>4712466018067</v>
       </c>
       <c r="F149" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G149" t="s">
-        <v>426</v>
-      </c>
-      <c r="H149" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H149">
+        <v>12</v>
       </c>
       <c r="I149" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J149" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K149">
         <v>23</v>
@@ -6114,23 +5496,23 @@
       <c r="B150" t="s">
         <v>159</v>
       </c>
-      <c r="C150" t="s">
-        <v>382</v>
+      <c r="C150">
+        <v>4901330642280</v>
       </c>
       <c r="F150" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G150" t="s">
-        <v>426</v>
-      </c>
-      <c r="H150" t="s">
-        <v>443</v>
+        <v>255</v>
+      </c>
+      <c r="H150">
+        <v>48</v>
       </c>
       <c r="I150" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J150" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K150">
         <v>23</v>
@@ -6143,23 +5525,23 @@
       <c r="B151" t="s">
         <v>160</v>
       </c>
-      <c r="C151" t="s">
-        <v>383</v>
+      <c r="C151">
+        <v>8993175531986</v>
       </c>
       <c r="F151" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G151" t="s">
-        <v>426</v>
-      </c>
-      <c r="H151" t="s">
-        <v>443</v>
+        <v>255</v>
+      </c>
+      <c r="H151">
+        <v>48</v>
       </c>
       <c r="I151" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J151" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K151">
         <v>23</v>
@@ -6172,23 +5554,23 @@
       <c r="B152" t="s">
         <v>161</v>
       </c>
-      <c r="C152" t="s">
-        <v>384</v>
+      <c r="C152">
+        <v>8801037005400</v>
       </c>
       <c r="F152" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G152" t="s">
-        <v>426</v>
-      </c>
-      <c r="H152" t="s">
-        <v>448</v>
+        <v>255</v>
+      </c>
+      <c r="H152">
+        <v>40</v>
       </c>
       <c r="I152" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J152" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K152">
         <v>23</v>
@@ -6201,23 +5583,23 @@
       <c r="B153" t="s">
         <v>162</v>
       </c>
-      <c r="C153" t="s">
-        <v>385</v>
+      <c r="C153">
+        <v>4710160006441</v>
       </c>
       <c r="F153" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G153" t="s">
-        <v>426</v>
-      </c>
-      <c r="H153" t="s">
-        <v>431</v>
+        <v>255</v>
+      </c>
+      <c r="H153">
+        <v>12</v>
       </c>
       <c r="I153" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J153" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K153">
         <v>23</v>
@@ -6230,23 +5612,23 @@
       <c r="B154" t="s">
         <v>163</v>
       </c>
-      <c r="C154" t="s">
-        <v>386</v>
+      <c r="C154">
+        <v>4710375110285</v>
       </c>
       <c r="F154" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G154" t="s">
-        <v>426</v>
-      </c>
-      <c r="H154" t="s">
-        <v>458</v>
+        <v>255</v>
+      </c>
+      <c r="H154">
+        <v>160</v>
       </c>
       <c r="I154" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J154" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K154">
         <v>23</v>
@@ -6259,23 +5641,23 @@
       <c r="B155" t="s">
         <v>164</v>
       </c>
-      <c r="C155" t="s">
-        <v>387</v>
+      <c r="C155">
+        <v>8851753099955</v>
       </c>
       <c r="F155" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G155" t="s">
-        <v>426</v>
-      </c>
-      <c r="H155" t="s">
-        <v>454</v>
+        <v>255</v>
+      </c>
+      <c r="H155">
+        <v>96</v>
       </c>
       <c r="I155" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J155" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K155">
         <v>23</v>
@@ -6288,23 +5670,23 @@
       <c r="B156" t="s">
         <v>165</v>
       </c>
-      <c r="C156" t="s">
-        <v>388</v>
+      <c r="C156">
+        <v>8851753099979</v>
       </c>
       <c r="F156" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G156" t="s">
-        <v>426</v>
-      </c>
-      <c r="H156" t="s">
-        <v>454</v>
+        <v>255</v>
+      </c>
+      <c r="H156">
+        <v>96</v>
       </c>
       <c r="I156" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J156" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K156">
         <v>23</v>
@@ -6317,23 +5699,23 @@
       <c r="B157" t="s">
         <v>166</v>
       </c>
-      <c r="C157" t="s">
-        <v>389</v>
+      <c r="C157">
+        <v>8851753099924</v>
       </c>
       <c r="F157" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G157" t="s">
-        <v>426</v>
-      </c>
-      <c r="H157" t="s">
-        <v>459</v>
+        <v>255</v>
+      </c>
+      <c r="H157">
+        <v>72</v>
       </c>
       <c r="I157" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J157" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K157">
         <v>23</v>
@@ -6346,23 +5728,23 @@
       <c r="B158" t="s">
         <v>167</v>
       </c>
-      <c r="C158" t="s">
-        <v>390</v>
+      <c r="C158">
+        <v>8851753099870</v>
       </c>
       <c r="F158" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G158" t="s">
-        <v>426</v>
-      </c>
-      <c r="H158" t="s">
-        <v>454</v>
+        <v>255</v>
+      </c>
+      <c r="H158">
+        <v>96</v>
       </c>
       <c r="I158" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J158" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K158">
         <v>23</v>
@@ -6375,23 +5757,23 @@
       <c r="B159" t="s">
         <v>168</v>
       </c>
-      <c r="C159" t="s">
-        <v>391</v>
+      <c r="C159">
+        <v>8993175542357</v>
       </c>
       <c r="F159" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G159" t="s">
-        <v>426</v>
-      </c>
-      <c r="H159" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+      <c r="H159">
+        <v>60</v>
       </c>
       <c r="I159" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J159" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K159">
         <v>23</v>
@@ -6404,23 +5786,23 @@
       <c r="B160" t="s">
         <v>169</v>
       </c>
-      <c r="C160" t="s">
-        <v>392</v>
+      <c r="C160">
+        <v>4895229107168</v>
       </c>
       <c r="F160" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G160" t="s">
-        <v>426</v>
-      </c>
-      <c r="H160" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="H160">
+        <v>50</v>
       </c>
       <c r="I160" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J160" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K160">
         <v>23</v>
@@ -6433,23 +5815,23 @@
       <c r="B161" t="s">
         <v>170</v>
       </c>
-      <c r="C161" t="s">
-        <v>393</v>
+      <c r="C161">
+        <v>6970274910012</v>
       </c>
       <c r="F161" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G161" t="s">
-        <v>426</v>
-      </c>
-      <c r="H161" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
       </c>
       <c r="I161" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J161" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K161">
         <v>23</v>
@@ -6462,23 +5844,23 @@
       <c r="B162" t="s">
         <v>171</v>
       </c>
-      <c r="C162" t="s">
-        <v>394</v>
+      <c r="C162">
+        <v>359902037</v>
       </c>
       <c r="F162" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G162" t="s">
-        <v>426</v>
-      </c>
-      <c r="H162" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
       </c>
       <c r="I162" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J162" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K162">
         <v>23</v>
@@ -6491,23 +5873,23 @@
       <c r="B163" t="s">
         <v>172</v>
       </c>
-      <c r="C163" t="s">
-        <v>395</v>
+      <c r="C163">
+        <v>350600514</v>
       </c>
       <c r="F163" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G163" t="s">
-        <v>426</v>
-      </c>
-      <c r="H163" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
       </c>
       <c r="I163" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J163" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K163">
         <v>23</v>
@@ -6520,23 +5902,23 @@
       <c r="B164" t="s">
         <v>173</v>
       </c>
-      <c r="C164" t="s">
-        <v>396</v>
+      <c r="C164">
+        <v>350400328</v>
       </c>
       <c r="F164" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G164" t="s">
-        <v>426</v>
-      </c>
-      <c r="H164" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
       </c>
       <c r="I164" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J164" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K164">
         <v>23</v>
@@ -6549,23 +5931,23 @@
       <c r="B165" t="s">
         <v>174</v>
       </c>
-      <c r="C165" t="s">
-        <v>397</v>
+      <c r="C165">
+        <v>220020020044</v>
       </c>
       <c r="F165" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G165" t="s">
-        <v>426</v>
-      </c>
-      <c r="H165" t="s">
-        <v>460</v>
+        <v>255</v>
+      </c>
+      <c r="H165">
+        <v>1200</v>
       </c>
       <c r="I165" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J165" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K165">
         <v>23</v>
@@ -6578,23 +5960,23 @@
       <c r="B166" t="s">
         <v>175</v>
       </c>
-      <c r="C166" t="s">
-        <v>398</v>
+      <c r="C166">
+        <v>4710273771151</v>
       </c>
       <c r="F166" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G166" t="s">
-        <v>426</v>
-      </c>
-      <c r="H166" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H166">
+        <v>20</v>
       </c>
       <c r="I166" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J166" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K166">
         <v>23</v>
@@ -6607,23 +5989,23 @@
       <c r="B167" t="s">
         <v>176</v>
       </c>
-      <c r="C167" t="s">
-        <v>399</v>
+      <c r="C167">
+        <v>4712702644135</v>
       </c>
       <c r="F167" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G167" t="s">
-        <v>426</v>
-      </c>
-      <c r="H167" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H167">
+        <v>5</v>
       </c>
       <c r="I167" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J167" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K167">
         <v>23</v>
@@ -6636,23 +6018,23 @@
       <c r="B168" t="s">
         <v>177</v>
       </c>
-      <c r="C168" t="s">
-        <v>400</v>
+      <c r="C168">
+        <v>4713435797105</v>
       </c>
       <c r="F168" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G168" t="s">
-        <v>426</v>
-      </c>
-      <c r="H168" t="s">
-        <v>434</v>
+        <v>255</v>
+      </c>
+      <c r="H168">
+        <v>15</v>
       </c>
       <c r="I168" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J168" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K168">
         <v>23</v>
@@ -6665,23 +6047,23 @@
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" t="s">
-        <v>401</v>
+      <c r="C169">
+        <v>4713435796641</v>
       </c>
       <c r="F169" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G169" t="s">
-        <v>426</v>
-      </c>
-      <c r="H169" t="s">
-        <v>432</v>
+        <v>255</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
       </c>
       <c r="I169" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J169" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K169">
         <v>23</v>
@@ -6694,23 +6076,23 @@
       <c r="B170" t="s">
         <v>179</v>
       </c>
-      <c r="C170" t="s">
-        <v>402</v>
+      <c r="C170">
+        <v>4713218462855</v>
       </c>
       <c r="F170" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G170" t="s">
-        <v>426</v>
-      </c>
-      <c r="H170" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H170">
+        <v>10</v>
       </c>
       <c r="I170" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J170" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K170">
         <v>23</v>
@@ -6723,23 +6105,23 @@
       <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
-        <v>403</v>
+      <c r="C171">
+        <v>4713435793947</v>
       </c>
       <c r="F171" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G171" t="s">
-        <v>426</v>
-      </c>
-      <c r="H171" t="s">
-        <v>439</v>
+        <v>255</v>
+      </c>
+      <c r="H171">
+        <v>50</v>
       </c>
       <c r="I171" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J171" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K171">
         <v>23</v>
@@ -6752,23 +6134,23 @@
       <c r="B172" t="s">
         <v>181</v>
       </c>
-      <c r="C172" t="s">
-        <v>404</v>
+      <c r="C172">
+        <v>4712702631227</v>
       </c>
       <c r="F172" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G172" t="s">
-        <v>426</v>
-      </c>
-      <c r="H172" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
       </c>
       <c r="I172" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J172" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K172">
         <v>23</v>
@@ -6782,22 +6164,22 @@
         <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>405</v>
+        <v>246</v>
       </c>
       <c r="F173" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G173" t="s">
-        <v>426</v>
-      </c>
-      <c r="H173" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H173">
+        <v>5</v>
       </c>
       <c r="I173" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J173" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K173">
         <v>23</v>
@@ -6810,23 +6192,23 @@
       <c r="B174" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
-        <v>406</v>
+      <c r="C174">
+        <v>718037863979</v>
       </c>
       <c r="F174" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G174" t="s">
-        <v>426</v>
-      </c>
-      <c r="H174" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
       </c>
       <c r="I174" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J174" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K174">
         <v>23</v>
@@ -6840,22 +6222,22 @@
         <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>407</v>
+        <v>247</v>
       </c>
       <c r="F175" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G175" t="s">
-        <v>426</v>
-      </c>
-      <c r="H175" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
       </c>
       <c r="I175" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J175" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K175">
         <v>23</v>
@@ -6868,23 +6250,23 @@
       <c r="B176" t="s">
         <v>185</v>
       </c>
-      <c r="C176" t="s">
-        <v>408</v>
+      <c r="C176">
+        <v>718037864143</v>
       </c>
       <c r="F176" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G176" t="s">
-        <v>426</v>
-      </c>
-      <c r="H176" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
       </c>
       <c r="I176" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J176" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K176">
         <v>23</v>
@@ -6897,23 +6279,23 @@
       <c r="B177" t="s">
         <v>186</v>
       </c>
-      <c r="C177" t="s">
-        <v>409</v>
+      <c r="C177">
+        <v>4713435796320</v>
       </c>
       <c r="F177" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G177" t="s">
-        <v>426</v>
-      </c>
-      <c r="H177" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="H177">
+        <v>100</v>
       </c>
       <c r="I177" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J177" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K177">
         <v>23</v>
@@ -6926,23 +6308,23 @@
       <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" t="s">
-        <v>410</v>
+      <c r="C178">
+        <v>4713435791462</v>
       </c>
       <c r="F178" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G178" t="s">
-        <v>426</v>
-      </c>
-      <c r="H178" t="s">
-        <v>461</v>
+        <v>255</v>
+      </c>
+      <c r="H178">
+        <v>150</v>
       </c>
       <c r="I178" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J178" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K178">
         <v>23</v>
@@ -6955,23 +6337,23 @@
       <c r="B179" t="s">
         <v>188</v>
       </c>
-      <c r="C179" t="s">
-        <v>411</v>
+      <c r="C179">
+        <v>4713435791721</v>
       </c>
       <c r="F179" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G179" t="s">
-        <v>426</v>
-      </c>
-      <c r="H179" t="s">
-        <v>461</v>
+        <v>255</v>
+      </c>
+      <c r="H179">
+        <v>150</v>
       </c>
       <c r="I179" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J179" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K179">
         <v>23</v>
@@ -6984,23 +6366,23 @@
       <c r="B180" t="s">
         <v>189</v>
       </c>
-      <c r="C180" t="s">
-        <v>412</v>
+      <c r="C180">
+        <v>4713435794043</v>
       </c>
       <c r="F180" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G180" t="s">
-        <v>426</v>
-      </c>
-      <c r="H180" t="s">
-        <v>435</v>
+        <v>255</v>
+      </c>
+      <c r="H180">
+        <v>10</v>
       </c>
       <c r="I180" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J180" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K180">
         <v>23</v>
@@ -7013,23 +6395,23 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" t="s">
-        <v>413</v>
+      <c r="C181">
+        <v>4712702644289</v>
       </c>
       <c r="F181" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G181" t="s">
-        <v>426</v>
-      </c>
-      <c r="H181" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="H181">
+        <v>5</v>
       </c>
       <c r="I181" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J181" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K181">
         <v>23</v>
@@ -7043,22 +6425,22 @@
         <v>191</v>
       </c>
       <c r="C182" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="F182" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G182" t="s">
-        <v>426</v>
-      </c>
-      <c r="H182" t="s">
-        <v>445</v>
+        <v>255</v>
+      </c>
+      <c r="H182">
+        <v>6</v>
       </c>
       <c r="I182" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J182" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K182">
         <v>23</v>
@@ -7072,22 +6454,22 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>415</v>
+        <v>249</v>
       </c>
       <c r="F183" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G183" t="s">
-        <v>426</v>
-      </c>
-      <c r="H183" t="s">
-        <v>454</v>
+        <v>255</v>
+      </c>
+      <c r="H183">
+        <v>96</v>
       </c>
       <c r="I183" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J183" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K183">
         <v>23</v>
@@ -7100,20 +6482,20 @@
       <c r="B184" t="s">
         <v>193</v>
       </c>
-      <c r="C184" t="s">
-        <v>416</v>
+      <c r="C184">
+        <v>4711203310686</v>
       </c>
       <c r="F184" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G184" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I184" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J184" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K184">
         <v>23</v>
@@ -7126,20 +6508,20 @@
       <c r="B185" t="s">
         <v>194</v>
       </c>
-      <c r="C185" t="s">
-        <v>417</v>
+      <c r="C185">
+        <v>4711203310457</v>
       </c>
       <c r="F185" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G185" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I185" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J185" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K185">
         <v>23</v>
@@ -7152,20 +6534,20 @@
       <c r="B186" t="s">
         <v>195</v>
       </c>
-      <c r="C186" t="s">
-        <v>418</v>
+      <c r="C186">
+        <v>4711203310426</v>
       </c>
       <c r="F186" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G186" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I186" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J186" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K186">
         <v>23</v>
@@ -7178,20 +6560,20 @@
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="C187" t="s">
-        <v>419</v>
+      <c r="C187">
+        <v>4711203310419</v>
       </c>
       <c r="F187" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G187" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I187" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J187" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K187">
         <v>23</v>
@@ -7204,20 +6586,20 @@
       <c r="B188" t="s">
         <v>197</v>
       </c>
-      <c r="C188" t="s">
-        <v>420</v>
+      <c r="C188">
+        <v>4711203310433</v>
       </c>
       <c r="F188" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G188" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="I188" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J188" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K188">
         <v>23</v>
@@ -7231,19 +6613,19 @@
         <v>198</v>
       </c>
       <c r="F189" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G189" t="s">
-        <v>426</v>
-      </c>
-      <c r="H189" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
       </c>
       <c r="I189" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J189" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K189">
         <v>23</v>
@@ -7257,19 +6639,19 @@
         <v>199</v>
       </c>
       <c r="F190" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G190" t="s">
-        <v>426</v>
-      </c>
-      <c r="H190" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
       </c>
       <c r="I190" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J190" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K190">
         <v>23</v>
@@ -7283,19 +6665,19 @@
         <v>200</v>
       </c>
       <c r="F191" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G191" t="s">
-        <v>426</v>
-      </c>
-      <c r="H191" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
       </c>
       <c r="I191" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J191" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K191">
         <v>23</v>
@@ -7309,19 +6691,19 @@
         <v>201</v>
       </c>
       <c r="F192" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G192" t="s">
-        <v>426</v>
-      </c>
-      <c r="H192" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
       </c>
       <c r="I192" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J192" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K192">
         <v>23</v>
@@ -7335,19 +6717,19 @@
         <v>202</v>
       </c>
       <c r="F193" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G193" t="s">
-        <v>426</v>
-      </c>
-      <c r="H193" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
       </c>
       <c r="I193" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J193" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K193">
         <v>23</v>
@@ -7361,19 +6743,19 @@
         <v>203</v>
       </c>
       <c r="F194" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G194" t="s">
-        <v>426</v>
-      </c>
-      <c r="H194" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
       </c>
       <c r="I194" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J194" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K194">
         <v>23</v>
@@ -7387,19 +6769,19 @@
         <v>204</v>
       </c>
       <c r="F195" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G195" t="s">
-        <v>426</v>
-      </c>
-      <c r="H195" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
       </c>
       <c r="I195" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J195" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K195">
         <v>23</v>
@@ -7413,19 +6795,19 @@
         <v>205</v>
       </c>
       <c r="F196" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G196" t="s">
-        <v>426</v>
-      </c>
-      <c r="H196" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
       </c>
       <c r="I196" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J196" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K196">
         <v>23</v>
@@ -7439,19 +6821,19 @@
         <v>206</v>
       </c>
       <c r="F197" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G197" t="s">
-        <v>426</v>
-      </c>
-      <c r="H197" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H197">
+        <v>3</v>
       </c>
       <c r="I197" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J197" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K197">
         <v>23</v>
@@ -7465,19 +6847,19 @@
         <v>207</v>
       </c>
       <c r="F198" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G198" t="s">
-        <v>426</v>
-      </c>
-      <c r="H198" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
       </c>
       <c r="I198" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J198" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K198">
         <v>23</v>
@@ -7491,19 +6873,19 @@
         <v>208</v>
       </c>
       <c r="F199" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G199" t="s">
-        <v>426</v>
-      </c>
-      <c r="H199" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
       </c>
       <c r="I199" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J199" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K199">
         <v>23</v>
@@ -7517,19 +6899,19 @@
         <v>209</v>
       </c>
       <c r="F200" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G200" t="s">
-        <v>426</v>
-      </c>
-      <c r="H200" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
       </c>
       <c r="I200" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J200" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K200">
         <v>23</v>
@@ -7543,19 +6925,19 @@
         <v>210</v>
       </c>
       <c r="F201" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G201" t="s">
-        <v>426</v>
-      </c>
-      <c r="H201" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
       </c>
       <c r="I201" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J201" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K201">
         <v>23</v>
@@ -7569,19 +6951,19 @@
         <v>211</v>
       </c>
       <c r="F202" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G202" t="s">
-        <v>426</v>
-      </c>
-      <c r="H202" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
       </c>
       <c r="I202" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J202" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K202">
         <v>23</v>
@@ -7595,19 +6977,19 @@
         <v>212</v>
       </c>
       <c r="F203" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G203" t="s">
-        <v>426</v>
-      </c>
-      <c r="H203" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
       </c>
       <c r="I203" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J203" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K203">
         <v>23</v>
@@ -7621,19 +7003,19 @@
         <v>213</v>
       </c>
       <c r="F204" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G204" t="s">
-        <v>426</v>
-      </c>
-      <c r="H204" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
       </c>
       <c r="I204" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J204" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K204">
         <v>23</v>
@@ -7647,19 +7029,19 @@
         <v>214</v>
       </c>
       <c r="F205" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G205" t="s">
-        <v>426</v>
-      </c>
-      <c r="H205" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
       </c>
       <c r="I205" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J205" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K205">
         <v>23</v>
@@ -7673,19 +7055,19 @@
         <v>215</v>
       </c>
       <c r="F206" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G206" t="s">
-        <v>426</v>
-      </c>
-      <c r="H206" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
       </c>
       <c r="I206" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J206" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K206">
         <v>23</v>
@@ -7699,19 +7081,19 @@
         <v>216</v>
       </c>
       <c r="F207" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G207" t="s">
-        <v>426</v>
-      </c>
-      <c r="H207" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
       </c>
       <c r="I207" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J207" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K207">
         <v>23</v>
@@ -7725,19 +7107,19 @@
         <v>217</v>
       </c>
       <c r="F208" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G208" t="s">
-        <v>426</v>
-      </c>
-      <c r="H208" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H208">
+        <v>3</v>
       </c>
       <c r="I208" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J208" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K208">
         <v>23</v>
@@ -7751,19 +7133,19 @@
         <v>218</v>
       </c>
       <c r="F209" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G209" t="s">
-        <v>426</v>
-      </c>
-      <c r="H209" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
       </c>
       <c r="I209" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J209" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K209">
         <v>23</v>
@@ -7777,19 +7159,19 @@
         <v>219</v>
       </c>
       <c r="F210" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G210" t="s">
-        <v>426</v>
-      </c>
-      <c r="H210" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
       </c>
       <c r="I210" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J210" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K210">
         <v>23</v>
@@ -7803,19 +7185,19 @@
         <v>220</v>
       </c>
       <c r="F211" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G211" t="s">
-        <v>426</v>
-      </c>
-      <c r="H211" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
       </c>
       <c r="I211" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J211" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K211">
         <v>23</v>
@@ -7829,19 +7211,19 @@
         <v>221</v>
       </c>
       <c r="F212" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G212" t="s">
-        <v>426</v>
-      </c>
-      <c r="H212" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H212">
+        <v>3</v>
       </c>
       <c r="I212" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J212" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K212">
         <v>23</v>
@@ -7855,19 +7237,19 @@
         <v>222</v>
       </c>
       <c r="F213" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G213" t="s">
-        <v>426</v>
-      </c>
-      <c r="H213" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H213">
+        <v>3</v>
       </c>
       <c r="I213" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J213" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K213">
         <v>23</v>
@@ -7881,19 +7263,19 @@
         <v>223</v>
       </c>
       <c r="F214" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G214" t="s">
-        <v>426</v>
-      </c>
-      <c r="H214" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
       </c>
       <c r="I214" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J214" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K214">
         <v>23</v>
@@ -7907,19 +7289,19 @@
         <v>224</v>
       </c>
       <c r="F215" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G215" t="s">
-        <v>426</v>
-      </c>
-      <c r="H215" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
       </c>
       <c r="I215" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J215" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K215">
         <v>23</v>
@@ -7933,19 +7315,19 @@
         <v>225</v>
       </c>
       <c r="F216" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G216" t="s">
-        <v>426</v>
-      </c>
-      <c r="H216" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
       </c>
       <c r="I216" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J216" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K216">
         <v>23</v>
@@ -7959,19 +7341,19 @@
         <v>226</v>
       </c>
       <c r="F217" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G217" t="s">
-        <v>426</v>
-      </c>
-      <c r="H217" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
       </c>
       <c r="I217" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J217" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K217">
         <v>23</v>
@@ -7985,19 +7367,19 @@
         <v>227</v>
       </c>
       <c r="F218" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G218" t="s">
-        <v>426</v>
-      </c>
-      <c r="H218" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H218">
+        <v>3</v>
       </c>
       <c r="I218" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J218" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K218">
         <v>23</v>
@@ -8011,19 +7393,19 @@
         <v>228</v>
       </c>
       <c r="F219" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G219" t="s">
-        <v>426</v>
-      </c>
-      <c r="H219" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
       </c>
       <c r="I219" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J219" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K219">
         <v>23</v>
@@ -8037,19 +7419,19 @@
         <v>229</v>
       </c>
       <c r="F220" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G220" t="s">
-        <v>426</v>
-      </c>
-      <c r="H220" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
       </c>
       <c r="I220" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J220" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K220">
         <v>23</v>
@@ -8063,19 +7445,19 @@
         <v>230</v>
       </c>
       <c r="F221" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G221" t="s">
-        <v>426</v>
-      </c>
-      <c r="H221" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
       </c>
       <c r="I221" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J221" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K221">
         <v>23</v>
@@ -8089,19 +7471,19 @@
         <v>231</v>
       </c>
       <c r="F222" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G222" t="s">
-        <v>426</v>
-      </c>
-      <c r="H222" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
       </c>
       <c r="I222" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J222" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K222">
         <v>23</v>
@@ -8115,19 +7497,19 @@
         <v>232</v>
       </c>
       <c r="F223" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G223" t="s">
-        <v>426</v>
-      </c>
-      <c r="H223" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
       </c>
       <c r="I223" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J223" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K223">
         <v>23</v>
@@ -8141,19 +7523,19 @@
         <v>233</v>
       </c>
       <c r="F224" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="G224" t="s">
-        <v>426</v>
-      </c>
-      <c r="H224" t="s">
-        <v>446</v>
+        <v>255</v>
+      </c>
+      <c r="H224">
+        <v>3</v>
       </c>
       <c r="I224" s="2">
         <v>44639.98064814815</v>
       </c>
       <c r="J224" t="s">
-        <v>462</v>
+        <v>256</v>
       </c>
       <c r="K224">
         <v>23</v>
